--- a/biology/Botanique/Eragrostis_pilosa/Eragrostis_pilosa.xlsx
+++ b/biology/Botanique/Eragrostis_pilosa/Eragrostis_pilosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eragrostis pilosa, l'éragrostide poilue, est une espèce de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Chloridoideae, originaire des régions tropicales et tempérées chaudes de l'hémisphère nord.
 Ce sont des plantes herbacées annuelles, aux tiges (chaumes) dressées géniculées ascendantes pouvant atteindre 70 cm de long, et aux inflorescences en panicule.
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (14 avril 2018)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (14 avril 2018) :
 Catabrosa verticillata (Cav.) P.Beauv.
 Eragrostis afghanica Gand.
 Eragrostis albensis H.Scholz
@@ -568,8 +585,43 @@
 Poa tenella Pall., nom. superfl.
 Poa tenuiflora Steud.
 Poa verticillata Cav.
-Liste des sous-espèces
-Selon NCBI  (14 avril 2018)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eragrostis_pilosa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eragrostis_pilosa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (14 avril 2018) :
 Eragrostis pilosa subsp. pilosa</t>
         </is>
       </c>
